--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW25.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="RGossF-HW25.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="RGossF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9930936015050276</v>
+        <v>0.9930936015050272</v>
       </c>
       <c r="D13">
         <v>0.9955011438546748</v>
@@ -958,7 +958,7 @@
         <v>0.9944649316965294</v>
       </c>
       <c r="F13">
-        <v>0.9930936015050276</v>
+        <v>0.9930936015050272</v>
       </c>
       <c r="G13">
         <v>0.9938638224076486</v>
@@ -976,7 +976,7 @@
         <v>0.9949830377756022</v>
       </c>
       <c r="L13">
-        <v>0.9940383196403149</v>
+        <v>0.9940383196403146</v>
       </c>
       <c r="M13">
         <v>0.9945981884706533</v>
@@ -1031,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9851121695331954</v>
+        <v>0.9851121695331951</v>
       </c>
       <c r="D15">
         <v>1.035032075919488</v>
@@ -1040,7 +1040,7 @@
         <v>0.9850720154504773</v>
       </c>
       <c r="F15">
-        <v>0.9851121695331954</v>
+        <v>0.9851121695331951</v>
       </c>
       <c r="G15">
         <v>1.016090513674558</v>
@@ -1058,10 +1058,51 @@
         <v>1.010052045684982</v>
       </c>
       <c r="L15">
-        <v>0.9975821076090889</v>
+        <v>0.9975821076090888</v>
       </c>
       <c r="M15">
         <v>0.9964658635477294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9898537016774713</v>
+      </c>
+      <c r="D16">
+        <v>0.9479731764878288</v>
+      </c>
+      <c r="E16">
+        <v>1.018040081265707</v>
+      </c>
+      <c r="F16">
+        <v>0.9898537016774713</v>
+      </c>
+      <c r="G16">
+        <v>0.9508196235837006</v>
+      </c>
+      <c r="H16">
+        <v>1.086662413002611</v>
+      </c>
+      <c r="I16">
+        <v>1.010712039757009</v>
+      </c>
+      <c r="J16">
+        <v>0.9479731764878288</v>
+      </c>
+      <c r="K16">
+        <v>0.9830066288767679</v>
+      </c>
+      <c r="L16">
+        <v>0.9864301652771196</v>
+      </c>
+      <c r="M16">
+        <v>1.000676839295721</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9898537016774713</v>

--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW25.xlsx
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9930936015050272</v>
+        <v>0.9930936015050276</v>
       </c>
       <c r="D13">
         <v>0.9955011438546748</v>
@@ -961,7 +961,7 @@
         <v>0.9944649316965294</v>
       </c>
       <c r="F13">
-        <v>0.9930936015050272</v>
+        <v>0.9930936015050276</v>
       </c>
       <c r="G13">
         <v>0.9938638224076486</v>
@@ -979,7 +979,7 @@
         <v>0.9949830377756022</v>
       </c>
       <c r="L13">
-        <v>0.9940383196403146</v>
+        <v>0.9940383196403149</v>
       </c>
       <c r="M13">
         <v>0.9945981884706533</v>
@@ -1034,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9851121695331951</v>
+        <v>0.9851121695331954</v>
       </c>
       <c r="D15">
         <v>1.035032075919488</v>
@@ -1043,7 +1043,7 @@
         <v>0.9850720154504773</v>
       </c>
       <c r="F15">
-        <v>0.9851121695331951</v>
+        <v>0.9851121695331954</v>
       </c>
       <c r="G15">
         <v>1.016090513674558</v>
@@ -1061,7 +1061,7 @@
         <v>1.010052045684982</v>
       </c>
       <c r="L15">
-        <v>0.9975821076090888</v>
+        <v>0.9975821076090889</v>
       </c>
       <c r="M15">
         <v>0.9964658635477294</v>

--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.225056000000002</v>
+        <v>0.9898537016774713</v>
       </c>
       <c r="D10">
-        <v>0.4844079999999993</v>
+        <v>0.9479731764878288</v>
       </c>
       <c r="E10">
-        <v>1.079244000000003</v>
+        <v>1.018040081265707</v>
       </c>
       <c r="F10">
-        <v>1.225056000000002</v>
+        <v>0.9898537016774713</v>
       </c>
       <c r="G10">
-        <v>0.7270519999999996</v>
+        <v>0.9508196235837006</v>
       </c>
       <c r="H10">
-        <v>1.226272000000001</v>
+        <v>1.086662413002611</v>
       </c>
       <c r="I10">
-        <v>1.105956</v>
+        <v>1.010712039757009</v>
       </c>
       <c r="J10">
-        <v>0.4844079999999993</v>
+        <v>0.9479731764878288</v>
       </c>
       <c r="K10">
-        <v>0.781826000000001</v>
+        <v>0.9830066288767679</v>
       </c>
       <c r="L10">
-        <v>1.003441000000002</v>
+        <v>0.9864301652771196</v>
       </c>
       <c r="M10">
-        <v>0.9746646666666674</v>
+        <v>1.000676839295721</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.36</v>
+        <v>0.9461476045655763</v>
       </c>
       <c r="D11">
-        <v>0.53</v>
+        <v>0.9497201514044133</v>
       </c>
       <c r="E11">
-        <v>0.99</v>
+        <v>1.04740182780279</v>
       </c>
       <c r="F11">
-        <v>1.36</v>
+        <v>0.9461476045655763</v>
       </c>
       <c r="G11">
-        <v>0.7890249999999992</v>
+        <v>0.9429022807811757</v>
       </c>
       <c r="H11">
-        <v>0.96</v>
+        <v>1.171857161548419</v>
       </c>
       <c r="I11">
-        <v>1.07</v>
+        <v>1.016186540646336</v>
       </c>
       <c r="J11">
-        <v>0.53</v>
+        <v>0.9497201514044133</v>
       </c>
       <c r="K11">
-        <v>0.76</v>
+        <v>0.9985609896036018</v>
       </c>
       <c r="L11">
-        <v>1.06</v>
+        <v>0.9723542970845891</v>
       </c>
       <c r="M11">
-        <v>0.9498374999999998</v>
+        <v>1.012369261124785</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.204750386380798</v>
+        <v>0.947160214983805</v>
       </c>
       <c r="D12">
-        <v>0.7241841140736001</v>
+        <v>0.9453326949076158</v>
       </c>
       <c r="E12">
-        <v>0.9929773148159994</v>
+        <v>1.048520564252864</v>
       </c>
       <c r="F12">
-        <v>1.204750386380798</v>
+        <v>0.947160214983805</v>
       </c>
       <c r="G12">
-        <v>0.8754622837759968</v>
+        <v>0.9405444506086148</v>
       </c>
       <c r="H12">
-        <v>0.9778392190976002</v>
+        <v>1.174589250976436</v>
       </c>
       <c r="I12">
-        <v>1.039254409420801</v>
+        <v>1.017257384990399</v>
       </c>
       <c r="J12">
-        <v>0.7241841140736001</v>
+        <v>0.9453326949076158</v>
       </c>
       <c r="K12">
-        <v>0.8585807144447997</v>
+        <v>0.9969266295802399</v>
       </c>
       <c r="L12">
-        <v>1.031665550412799</v>
+        <v>0.9720434222820225</v>
       </c>
       <c r="M12">
-        <v>0.9690779545941325</v>
+        <v>1.012234093453289</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9930936015050276</v>
+        <v>0.9462572423490823</v>
       </c>
       <c r="D13">
-        <v>0.9955011438546748</v>
+        <v>0.9487236174581086</v>
       </c>
       <c r="E13">
-        <v>0.9944649316965294</v>
+        <v>1.047744034250202</v>
       </c>
       <c r="F13">
-        <v>0.9930936015050276</v>
+        <v>0.9462572423490823</v>
       </c>
       <c r="G13">
-        <v>0.9938638224076486</v>
+        <v>0.9423437630885232</v>
       </c>
       <c r="H13">
-        <v>0.9961850192386988</v>
+        <v>1.172695086564939</v>
       </c>
       <c r="I13">
-        <v>0.9944806121213408</v>
+        <v>1.016474402639649</v>
       </c>
       <c r="J13">
-        <v>0.9955011438546748</v>
+        <v>0.9487236174581086</v>
       </c>
       <c r="K13">
-        <v>0.9949830377756022</v>
+        <v>0.9982338258541553</v>
       </c>
       <c r="L13">
-        <v>0.9940383196403149</v>
+        <v>0.9722455341016187</v>
       </c>
       <c r="M13">
-        <v>0.9945981884706533</v>
+        <v>1.012373024391751</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.006919063885568</v>
+        <v>1.225056000000002</v>
       </c>
       <c r="D14">
-        <v>0.9950452198478871</v>
+        <v>0.4844079999999993</v>
       </c>
       <c r="E14">
-        <v>0.9869543391756601</v>
+        <v>1.079244000000003</v>
       </c>
       <c r="F14">
-        <v>1.006919063885568</v>
+        <v>1.225056000000002</v>
       </c>
       <c r="G14">
-        <v>1.000119122551058</v>
+        <v>0.7270519999999996</v>
       </c>
       <c r="H14">
-        <v>0.9684168653373026</v>
+        <v>1.226272000000001</v>
       </c>
       <c r="I14">
-        <v>0.9932099826403843</v>
+        <v>1.105956</v>
       </c>
       <c r="J14">
-        <v>0.9950452198478871</v>
+        <v>0.4844079999999993</v>
       </c>
       <c r="K14">
-        <v>0.9909997795117735</v>
+        <v>0.781826000000001</v>
       </c>
       <c r="L14">
-        <v>0.9989594216986708</v>
+        <v>1.003441000000002</v>
       </c>
       <c r="M14">
-        <v>0.9917774322396434</v>
+        <v>0.9746646666666674</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9851121695331954</v>
+        <v>1.36</v>
       </c>
       <c r="D15">
-        <v>1.035032075919488</v>
+        <v>0.53</v>
       </c>
       <c r="E15">
-        <v>0.9850720154504773</v>
+        <v>0.99</v>
       </c>
       <c r="F15">
-        <v>0.9851121695331954</v>
+        <v>1.36</v>
       </c>
       <c r="G15">
-        <v>1.016090513674558</v>
+        <v>0.7890249999999992</v>
       </c>
       <c r="H15">
-        <v>0.9732386689609874</v>
+        <v>0.96</v>
       </c>
       <c r="I15">
-        <v>0.9842497377476701</v>
+        <v>1.07</v>
       </c>
       <c r="J15">
-        <v>1.035032075919488</v>
+        <v>0.53</v>
       </c>
       <c r="K15">
-        <v>1.010052045684982</v>
+        <v>0.76</v>
       </c>
       <c r="L15">
-        <v>0.9975821076090889</v>
+        <v>1.06</v>
       </c>
       <c r="M15">
-        <v>0.9964658635477294</v>
+        <v>0.9498374999999998</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9898537016774713</v>
+        <v>1.204750386380798</v>
       </c>
       <c r="D16">
-        <v>0.9479731764878288</v>
+        <v>0.7241841140736001</v>
       </c>
       <c r="E16">
-        <v>1.018040081265707</v>
+        <v>0.9929773148159994</v>
       </c>
       <c r="F16">
-        <v>0.9898537016774713</v>
+        <v>1.204750386380798</v>
       </c>
       <c r="G16">
-        <v>0.9508196235837006</v>
+        <v>0.8754622837759968</v>
       </c>
       <c r="H16">
-        <v>1.086662413002611</v>
+        <v>0.9778392190976002</v>
       </c>
       <c r="I16">
-        <v>1.010712039757009</v>
+        <v>1.039254409420801</v>
       </c>
       <c r="J16">
-        <v>0.9479731764878288</v>
+        <v>0.7241841140736001</v>
       </c>
       <c r="K16">
-        <v>0.9830066288767679</v>
+        <v>0.8585807144447997</v>
       </c>
       <c r="L16">
-        <v>0.9864301652771196</v>
+        <v>1.031665550412799</v>
       </c>
       <c r="M16">
-        <v>1.000676839295721</v>
+        <v>0.9690779545941325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9930936015050272</v>
+      </c>
+      <c r="D17">
+        <v>0.9955011438546748</v>
+      </c>
+      <c r="E17">
+        <v>0.9944649316965294</v>
+      </c>
+      <c r="F17">
+        <v>0.9930936015050272</v>
+      </c>
+      <c r="G17">
+        <v>0.9938638224076486</v>
+      </c>
+      <c r="H17">
+        <v>0.9961850192386988</v>
+      </c>
+      <c r="I17">
+        <v>0.9944806121213408</v>
+      </c>
+      <c r="J17">
+        <v>0.9955011438546748</v>
+      </c>
+      <c r="K17">
+        <v>0.9949830377756022</v>
+      </c>
+      <c r="L17">
+        <v>0.9940383196403146</v>
+      </c>
+      <c r="M17">
+        <v>0.9945981884706533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.006919063885568</v>
+      </c>
+      <c r="D18">
+        <v>0.9950452198478871</v>
+      </c>
+      <c r="E18">
+        <v>0.9869543391756601</v>
+      </c>
+      <c r="F18">
+        <v>1.006919063885568</v>
+      </c>
+      <c r="G18">
+        <v>1.000119122551058</v>
+      </c>
+      <c r="H18">
+        <v>0.9684168653373026</v>
+      </c>
+      <c r="I18">
+        <v>0.9932099826403843</v>
+      </c>
+      <c r="J18">
+        <v>0.9950452198478871</v>
+      </c>
+      <c r="K18">
+        <v>0.9909997795117735</v>
+      </c>
+      <c r="L18">
+        <v>0.9989594216986708</v>
+      </c>
+      <c r="M18">
+        <v>0.9917774322396434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9851121695331951</v>
+      </c>
+      <c r="D19">
+        <v>1.035032075919488</v>
+      </c>
+      <c r="E19">
+        <v>0.9850720154504773</v>
+      </c>
+      <c r="F19">
+        <v>0.9851121695331951</v>
+      </c>
+      <c r="G19">
+        <v>1.016090513674558</v>
+      </c>
+      <c r="H19">
+        <v>0.9732386689609874</v>
+      </c>
+      <c r="I19">
+        <v>0.9842497377476701</v>
+      </c>
+      <c r="J19">
+        <v>1.035032075919488</v>
+      </c>
+      <c r="K19">
+        <v>1.010052045684982</v>
+      </c>
+      <c r="L19">
+        <v>0.9975821076090888</v>
+      </c>
+      <c r="M19">
+        <v>0.9964658635477294</v>
       </c>
     </row>
   </sheetData>
